--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/AmlCustList.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/AmlCustList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9A89B4-04E6-42B8-BDFD-86CBE6CA061B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -78,14 +79,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Index2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -172,13 +165,40 @@
   </si>
   <si>
     <t>VARCHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>往回推五年，其餘條件同[註記1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">同一戶號下，任一額度[循環動用期限(FacMain.RecycleDeadline)]&gt;=
+資料產生日]，則註記="Y"，否則註記="N"
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-10-18 Wei修改 
+FROM QC:2055 珮琪:
+此資料KEY值為LA$APLP.CASNUM3案件編號(FacMain.CreditSysNo),當無案件編號時才帶戶號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程式執行的系統日期往回推三年，同一戶號下且未約定「限制清償期間」的客戶，三年內還本的匯款金額&gt;=2500萬則帶"Y"，不符合者則帶"N" 
+(1)未約定「限制清償期間」: [是否限制清償(FacProd.BreachFlag)] 為 "N"
+(2)三年內匯款金額&gt;=2500萬：[放款交易內容檔(LoanBorTx.TxAmt)]
+(3)合計[交易金額(LoanBorTx.TxAmt)] 
+(4)[訂正別(TitaHCode)] ="0" 
+&amp;&amp; [交易代號(TitaTxCd)] ="L3200"
+&amp;&amp; [提前償還本金(ExtraRepay)] &gt;0
+&amp;&amp; [JSON_VALUE(OtherFields)],'$.[RepayCode]=[1.匯款]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
       <sz val="12"/>
@@ -351,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,16 +381,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -382,9 +402,6 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -394,9 +411,6 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -421,19 +435,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -447,13 +461,16 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 3" xfId="3"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,6 +561,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -579,6 +613,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -754,359 +805,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="24" customWidth="1"/>
-    <col min="5" max="6" width="6" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="93.44140625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="22" customWidth="1"/>
+    <col min="5" max="6" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.44140625" style="15" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="30" t="s">
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="62.4">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1">
-      <c r="A8" s="8" t="s">
+      <c r="E7" s="13">
+        <v>7</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="140.4">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="46.8">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="15">
-        <v>1</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="15">
+      <c r="D11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="13">
+        <v>6</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13">
         <v>7</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="15">
-        <v>2</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="15">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="15">
+      <c r="B13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="15">
-        <v>4</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="15">
-        <v>5</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="G13" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="15">
+      <c r="E14" s="13">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="15">
-        <v>6</v>
-      </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="15">
-        <v>7</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>3</v>
-      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="15">
-        <v>8</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="15">
-        <v>6</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>3</v>
-      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="22"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="22"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="21"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="22"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="21"/>
-      <c r="C21" s="23"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="26"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="21"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="21"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="28"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="21"/>
-      <c r="C23" s="23"/>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="21"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="25"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A7:B7"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1115,7 +1150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/AmlCustList.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/AmlCustList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9A89B4-04E6-42B8-BDFD-86CBE6CA061B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730858DB-3A3F-4B84-A43B-934BECD30410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,13 +185,13 @@
   </si>
   <si>
     <t>程式執行的系統日期往回推三年，同一戶號下且未約定「限制清償期間」的客戶，三年內還本的匯款金額&gt;=2500萬則帶"Y"，不符合者則帶"N" 
-(1)未約定「限制清償期間」: [是否限制清償(FacProd.BreachFlag)] 為 "N"
+(1)未約定「限制清償期間」: [是否限制清償FacMain.BreachFlag)] 為 "N"
 (2)三年內匯款金額&gt;=2500萬：[放款交易內容檔(LoanBorTx.TxAmt)]
 (3)合計[交易金額(LoanBorTx.TxAmt)] 
 (4)[訂正別(TitaHCode)] ="0" 
 &amp;&amp; [交易代號(TitaTxCd)] ="L3200"
 &amp;&amp; [提前償還本金(ExtraRepay)] &gt;0
-&amp;&amp; [JSON_VALUE(OtherFields)],'$.[RepayCode]=[1.匯款]</t>
+&amp;&amp; [還款來源(RepayCode)]=1.匯款 or 11.大額匯款手工增入入帳</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -456,14 +456,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -809,7 +809,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6"/>
@@ -824,10 +824,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="4" t="s">
         <v>31</v>
       </c>
@@ -839,8 +839,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
@@ -852,10 +852,10 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
@@ -865,10 +865,10 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11"/>
       <c r="D4" s="10"/>
       <c r="E4" s="5"/>
@@ -876,10 +876,10 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="11"/>
       <c r="D5" s="10"/>
       <c r="E5" s="5"/>
@@ -926,7 +926,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="28" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/AmlCustList.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/AmlCustList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730858DB-3A3F-4B84-A43B-934BECD30410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE82B901-A9C9-4D74-9365-16743B0B2BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>欄位名稱</t>
   </si>
   <si>
@@ -193,6 +189,9 @@
 &amp;&amp; [提前償還本金(ExtraRepay)] &gt;0
 &amp;&amp; [還款來源(RepayCode)]=1.匯款 or 11.大額匯款手工增入入帳</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -486,9 +485,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -526,9 +525,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,26 +560,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -613,26 +595,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -808,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6"/>
@@ -829,10 +794,10 @@
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -857,7 +822,7 @@
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="5"/>
@@ -891,22 +856,22 @@
         <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="62.4">
@@ -914,10 +879,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>17</v>
@@ -927,7 +892,7 @@
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="140.4">
@@ -935,20 +900,20 @@
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="13">
         <v>1</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -956,20 +921,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="13">
         <v>1</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="46.8">
@@ -977,20 +942,20 @@
         <v>4</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="13">
         <v>1</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1004,7 +969,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -1044,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
